--- a/biology/Botanique/Agaric_auguste/Agaric_auguste.xlsx
+++ b/biology/Botanique/Agaric_auguste/Agaric_auguste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'agaric auguste ou agaric impérial (Agaricus augustus) est un champignon basidiomycète du genre Agaricus et de la famille des Agaricaceae.
 Synonyme :
@@ -513,7 +525,9 @@
           <t>Fiche</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chapeau : jusqu'à 15 cm de diamètre, couvert de mèches brun-roux sur fond crème.
 Lames : libres, de couleur crème et gris-rose puis brunes comme la majorité des champignons de cette famille.
@@ -548,7 +562,9 @@
           <t>Identification, espèces proches</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce gros agaric se reconnaît facilement à son chapeau couvert de mèches rousses, à sa chair qui change peu de couleur et à son odeur nette, agréable, rappelant celle des amandes amères.
 D'autres agarics ont un chapeau semblable, mais leurs mèches sont plus brunes que rousses, leur chair devient en général fortement rouge à la manipulation.
@@ -581,7 +597,9 @@
           <t>Habitat et saison</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve l'agaric auguste dans les bois de feuillus, parfois en lisière, et aussi dans les endroits herbeux notamment en automne.
 </t>
